--- a/spliced/struggle/2023-04-11_10-38-26/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-38-26/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>-0.5351743698120117</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-3.367526054382324</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.915987193584442</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.626443386077881</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.118759155273438</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.792432069778442</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-4.963344097137451</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.557756900787354</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.5582034587860107</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2619988918304443</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.715949058532715</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.576748490333557</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.096891403198242</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.8243503570556641</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5943599939346313</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.927432060241699</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.2981023788452148</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.024843096733093</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8517363667488098</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4371089935302734</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3337190449237823</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.154114544391632</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.5641984939575195</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.3292053341865539</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.326197862625122</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.131052017211914</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5107872486114502</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0540084838867187</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.1777238845825195</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4102384448051452</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1352127194404602</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
